--- a/exported_queries.xlsx
+++ b/exported_queries.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhilb\Documents\NSS_Data_Analytics\projects\app-trader-strawberries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0551CA94-2E1E-43CD-B832-719A722AE4FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB0416-C03D-4294-A8B7-2A5D6B308B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="highest_total_expected_profit" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1564" uniqueCount="415">
   <si>
     <t>name</t>
   </si>
@@ -1244,15 +1244,9 @@
     <t>17+</t>
   </si>
   <si>
-    <t>Adults only 18+</t>
-  </si>
-  <si>
     <t>Everyone 10+</t>
   </si>
   <si>
-    <t>Unrated</t>
-  </si>
-  <si>
     <t>Teen</t>
   </si>
   <si>
@@ -1268,22 +1262,19 @@
     <t>genres_play</t>
   </si>
   <si>
-    <t>When only pulling from pool of apps in both:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> When only pulling from pool of apps in both:</t>
-  </si>
-  <si>
     <t>expected_profit</t>
   </si>
   <si>
     <t>profit_rank</t>
+  </si>
+  <si>
+    <t>review_count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1821,6 +1812,2244 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600"/>
+              <a:t>Average Expected Profit (App Store)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profit_by_content_rating_apple!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg_expected_profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>profit_by_content_rating_apple!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4+</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12+</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profit_by_content_rating_apple!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>149471.35678391901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>151552.38095237999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147403.07692307601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132568.18181818101</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-319C-47B7-99EB-1E9E0B93285E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1186867487"/>
+        <c:axId val="1110541007"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1186867487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1110541007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1110541007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1186867487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average Expected Profit (Play Store)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>profit_by_content_rating_play!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>avg_expected_profit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>profit_by_content_rating_play!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Everyone</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Everyone 10+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Teen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Mature 17+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>profit_by_content_rating_play!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>158690.909090909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166369.01408450701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>160245.054945054</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>156158.82352941099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4BAF-47D9-BF90-E065DB6465DB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1182752543"/>
+        <c:axId val="1107107247"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1182752543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1107107247"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1107107247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1182752543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="294">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C053E69-7C7B-4739-B942-7231F3E20205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A884053-C508-4728-9CC6-55F5D91AD73E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313497</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402651E4-F1C1-44E8-AA78-20E52FEEEAC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="2533650"/>
+          <a:ext cx="4171122" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402949</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>306870</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BEE7B9-4C23-4138-993D-B4BF149E33EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7622899" y="2533650"/>
+          <a:ext cx="4171121" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>313497</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10231339-3EFC-4A6D-AB26-F397199BC055}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2752725" y="4899163"/>
+          <a:ext cx="4171122" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402948</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>306870</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AF11ED-405B-411C-B270-AE5B9D98A01D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7622898" y="4899163"/>
+          <a:ext cx="4171122" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399222</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6D54037-D86B-48E3-A2F1-5A4E97C907D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="2533650"/>
+          <a:ext cx="4171122" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488674</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>392595</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114990</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30AFE369-A44B-424B-A561-D2A9D01A2F26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8651599" y="2533650"/>
+          <a:ext cx="4171121" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>399222</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E00B90C-AFF8-4FE5-B51B-149FB4062D51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3781425" y="4899163"/>
+          <a:ext cx="4171122" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>488673</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>392595</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="table">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1F32943-9E1C-452A-A76B-608678C7398C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8651598" y="4899163"/>
+          <a:ext cx="4171122" cy="1924740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2117,10 +4346,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E496"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2138,10 +4367,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -10571,11 +12800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10602,44 +12831,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B2">
-        <v>987</v>
+        <v>199</v>
       </c>
       <c r="C2">
-        <v>3.7695035460992901</v>
+        <v>4.0326633165829104</v>
       </c>
       <c r="D2">
-        <v>127714.58966565299</v>
+        <v>149471.35678391901</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B3">
-        <v>1155</v>
+        <v>42</v>
       </c>
       <c r="C3">
-        <v>3.5666666666666602</v>
+        <v>4.2976190476190403</v>
       </c>
       <c r="D3">
-        <v>124620</v>
+        <v>151552.38095237999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B4">
-        <v>4433</v>
+        <v>65</v>
       </c>
       <c r="C4">
-        <v>3.5701556508008099</v>
+        <v>4.1153846153846096</v>
       </c>
       <c r="D4">
-        <v>123181.434694337</v>
+        <v>147403.07692307601</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10647,101 +12876,27 @@
         <v>405</v>
       </c>
       <c r="B5">
-        <v>622</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>2.7604501607717</v>
+        <v>3.75</v>
       </c>
       <c r="D5">
-        <v>100369.13183279699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>398</v>
-      </c>
-      <c r="B9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C9" t="s">
-        <v>400</v>
-      </c>
-      <c r="D9" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>402</v>
-      </c>
-      <c r="B10">
-        <v>42</v>
-      </c>
-      <c r="C10">
-        <v>4.2976190476190403</v>
-      </c>
-      <c r="D10">
-        <v>151552.38095237999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>404</v>
-      </c>
-      <c r="B11">
-        <v>199</v>
-      </c>
-      <c r="C11">
-        <v>4.0326633165829104</v>
-      </c>
-      <c r="D11">
-        <v>149471.35678391901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12">
-        <v>65</v>
-      </c>
-      <c r="C12">
-        <v>4.1153846153846096</v>
-      </c>
-      <c r="D12">
-        <v>147403.07692307601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13">
-        <v>22</v>
-      </c>
-      <c r="C13">
-        <v>3.75</v>
-      </c>
-      <c r="D13">
         <v>132568.18181818101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10768,174 +12923,316 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>374</v>
       </c>
       <c r="C2">
-        <v>4.3</v>
+        <v>4.3179144385026698</v>
       </c>
       <c r="D2">
-        <v>162800</v>
+        <v>158690.909090909</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B3">
-        <v>414</v>
+        <v>71</v>
       </c>
       <c r="C3">
-        <v>4.2571788413098197</v>
+        <v>4.4225352112675997</v>
       </c>
       <c r="D3">
-        <v>158141.309823677</v>
+        <v>166369.01408450701</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="C4">
-        <v>4.0999999999999996</v>
+        <v>4.3538461538461499</v>
       </c>
       <c r="D4">
-        <v>155600</v>
+        <v>160245.054945054</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B5">
-        <v>1208</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>4.2334870848708404</v>
+        <v>4.3764705882352901</v>
       </c>
       <c r="D5">
-        <v>155046.494464944</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>410</v>
-      </c>
-      <c r="B6">
-        <v>499</v>
-      </c>
-      <c r="C6">
-        <v>4.1234273318871999</v>
-      </c>
-      <c r="D6">
-        <v>154357.48373101899</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>411</v>
-      </c>
-      <c r="B7">
-        <v>8714</v>
-      </c>
-      <c r="C7">
-        <v>4.1863746630727698</v>
-      </c>
-      <c r="D7">
-        <v>148529.851752021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>398</v>
-      </c>
-      <c r="B11" t="s">
-        <v>399</v>
-      </c>
-      <c r="C11" t="s">
-        <v>400</v>
-      </c>
-      <c r="D11" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B12">
-        <v>71</v>
-      </c>
-      <c r="C12">
-        <v>4.4225352112675997</v>
-      </c>
-      <c r="D12">
-        <v>166369.01408450701</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>409</v>
-      </c>
-      <c r="B13">
-        <v>91</v>
-      </c>
-      <c r="C13">
-        <v>4.3538461538461499</v>
-      </c>
-      <c r="D13">
-        <v>160245.054945054</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>411</v>
-      </c>
-      <c r="B14">
-        <v>374</v>
-      </c>
-      <c r="C14">
-        <v>4.3179144385026698</v>
-      </c>
-      <c r="D14">
-        <v>158690.909090909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>410</v>
-      </c>
-      <c r="B15">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>4.3764705882352901</v>
-      </c>
-      <c r="D15">
         <v>156158.82352941099</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2">
+        <v>188000</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>8176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C3">
+        <v>170000</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2161558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C4">
+        <v>170000</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>1061624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C5">
+        <v>170000</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>114475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>405</v>
+      </c>
+      <c r="C6">
+        <v>170000</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>53285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7">
+        <v>170000</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>16968</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8">
+        <v>188000</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>370370</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9">
+        <v>188000</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>258624</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>404</v>
+      </c>
+      <c r="C10">
+        <v>188000</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>79074</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>402</v>
+      </c>
+      <c r="C11">
+        <v>188000</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>90851</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12">
+        <v>170000</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2130805</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C13">
+        <v>170000</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1724546</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10946,7 +13243,7 @@
     <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10954,32 +13251,38 @@
         <v>398</v>
       </c>
       <c r="C1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="E1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C2">
-        <v>188000</v>
+        <v>170000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>69119316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C3">
         <v>170000</v>
@@ -10987,13 +13290,16 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>22430188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="C4">
         <v>170000</v>
@@ -11001,27 +13307,33 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>14892469</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C5">
-        <v>170000</v>
+        <v>188000</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>526595</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C6">
         <v>170000</v>
@@ -11029,13 +13341,16 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>44893888</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C7">
         <v>170000</v>
@@ -11043,55 +13358,67 @@
       <c r="D7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>27725352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C8">
-        <v>188000</v>
+        <v>178100</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="B9" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C9">
-        <v>188000</v>
+        <v>170000</v>
       </c>
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>11667403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C10">
-        <v>188000</v>
+        <v>170000</v>
       </c>
       <c r="D10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>3039889</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C11">
         <v>188000</v>
@@ -11099,13 +13426,16 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>1499466</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C12">
         <v>170000</v>
@@ -11113,13 +13443,16 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>66577446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C13">
         <v>170000</v>
@@ -11127,211 +13460,12 @@
       <c r="D13">
         <v>3</v>
       </c>
+      <c r="E13">
+        <v>8389714</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1" t="s">
-        <v>416</v>
-      </c>
-      <c r="D1" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C2">
-        <v>170000</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>411</v>
-      </c>
-      <c r="C3">
-        <v>170000</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>227</v>
-      </c>
-      <c r="B4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4">
-        <v>170000</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>407</v>
-      </c>
-      <c r="C5">
-        <v>188000</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" t="s">
-        <v>407</v>
-      </c>
-      <c r="C6">
-        <v>170000</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" t="s">
-        <v>407</v>
-      </c>
-      <c r="C7">
-        <v>170000</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B8" t="s">
-        <v>410</v>
-      </c>
-      <c r="C8">
-        <v>178100</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C9">
-        <v>170000</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>223</v>
-      </c>
-      <c r="B10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C10">
-        <v>170000</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>409</v>
-      </c>
-      <c r="C11">
-        <v>188000</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" t="s">
-        <v>409</v>
-      </c>
-      <c r="C12">
-        <v>170000</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" t="s">
-        <v>409</v>
-      </c>
-      <c r="C13">
-        <v>170000</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exported_queries.xlsx
+++ b/exported_queries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rhilb\Documents\NSS_Data_Analytics\projects\app-trader-strawberries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FCB0416-C03D-4294-A8B7-2A5D6B308B43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AB660D-61E9-4D08-BD07-AC85B4EE3143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31290" yWindow="1080" windowWidth="15300" windowHeight="7815" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="highest_total_expected_profit" sheetId="1" r:id="rId1"/>
@@ -3694,21 +3694,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>313497</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="table">
+        <xdr:cNvPr id="18" name="table">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{402651E4-F1C1-44E8-AA78-20E52FEEEAC8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CF41E8-85EB-4BD4-8F51-460E4202F933}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3724,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="2533650"/>
+          <a:off x="2752725" y="2352675"/>
           <a:ext cx="4171122" cy="1924740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3738,21 +3738,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>402949</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>306870</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>114990</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="table">
+        <xdr:cNvPr id="19" name="table">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9BEE7B9-4C23-4138-993D-B4BF149E33EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AECACA-BD73-4383-B94C-D67F0C6BBB5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3768,7 +3768,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7622899" y="2533650"/>
+          <a:off x="7622899" y="2352675"/>
           <a:ext cx="4171121" cy="1924740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3782,21 +3782,21 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>12838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>313497</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="table">
+        <xdr:cNvPr id="20" name="table">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10231339-3EFC-4A6D-AB26-F397199BC055}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AFFDDA-9A41-4DDD-AE8C-1CE97B36DD25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3812,7 +3812,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2752725" y="4899163"/>
+          <a:off x="2752725" y="4718188"/>
           <a:ext cx="4171122" cy="1924740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3826,21 +3826,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>402948</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>12838</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>306870</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>127828</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="table">
+        <xdr:cNvPr id="21" name="table">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88AF11ED-405B-411C-B270-AE5B9D98A01D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC34F2D6-D32D-4DD5-973A-9C726B72B780}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3856,7 +3856,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7622898" y="4899163"/>
+          <a:off x="7622898" y="4718188"/>
           <a:ext cx="4171122" cy="1924740"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4349,7 +4349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E496"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -12987,8 +12987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13231,7 +13231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
